--- a/BackTest/2020-01-24 BackTest XLM.xlsx
+++ b/BackTest/2020-01-24 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-376625.29650478</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-413388.50500478</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-427556.11770478</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-437680.92710478</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-446242.39420478</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-491316.53520478</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-449728.59790478</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-449738.50450478</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-453029.50450478</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-453029.50450478</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-453029.50450478</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-454923.47010478</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-454233.80330478</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-454233.80330478</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-455241.50330478</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-455241.50330478</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-416380.73400478</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-441412.47100478</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-493765.90240478</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-469199.34820478</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-497993.37510478</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-478917.48120478</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-478917.48120478</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-535275.94870478</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-534982.40160478</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-548751.24140478</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-542888.65600478</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-542078.06270478</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-548425.4139047801</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-546920.79770478</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-546920.79770478</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-547463.1933047801</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-547463.1933047801</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-553787.95030478</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-522680.56690478</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-522680.56690478</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-580384.7457658199</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-580384.7457658199</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-580340.2426658199</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-581587.3914658199</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-581173.1825658199</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-581173.1825658199</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-582623.9543658199</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-601148.3986658199</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-629239.9794658199</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-629239.9794658199</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-631316.4581658199</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-631393.3670658199</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-631331.19426582</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-640013.53066582</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-640013.53066582</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-520062.53066582</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-516825.90816582</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-545211.44346582</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-587314.13426582</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-587314.13426582</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-593229.86811705</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-594547.86811705</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-597199.0353170501</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-597199.0353170501</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-597437.9190170501</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-385340.5457170501</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-419686.0042170502</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-379923.8417170502</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-286825.8576170502</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-400549.6090170502</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-469013.7146170502</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-469013.7146170502</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-469013.7146170502</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-544010.3327170502</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-509599.7887053302</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-516367.1187053302</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-514292.0423053302</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-539907.3138053302</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-651152.5613053301</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1172783.70821948</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1175234.05471948</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1154256.99490126</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1153690.99490126</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1130599.57930126</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1127782.172301261</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1127957.002201261</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1119601.660201261</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1121757.220601261</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1103286.093601261</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1108953.563601261</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1102911.019401261</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1104170.019401261</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1120992.620401261</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1107435.120401261</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1129411.783001261</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1128902.114401261</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1157668.762201261</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1147888.18220126</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1150308.65300126</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1100148.304001261</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1105122.896801261</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1127378.119801261</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1132709.45000126</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1132693.23350126</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1132747.70941054</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1176848.95421054</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1176758.89301054</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1176758.89301054</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1156755.74051054</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1156921.73241054</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1156921.73231054</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1155057.90781054</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1155237.24511054</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1157325.64621054</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1147115.80821054</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1150533.30821054</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1148617.30821054</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1148699.54961054</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1148692.24961054</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1148692.24961054</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1150834.44131054</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1150834.44131054</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1156465.60701054</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1210484.00151153</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1322578.69431153</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1349092.67871153</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1348984.08501153</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1341169.18811153</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1321169.18811153</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1311416.07801153</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1312577.45641153</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1313022.45641153</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1313022.45641153</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1313614.75951153</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1313295.55951153</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1313295.55951153</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1312202.30201153</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1313236.30201153</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-1314914.30201153</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-1317486.61541153</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-1316647.61551153</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-1317670.34271153</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1302910.32551153</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1303749.32541153</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1300510.49741153</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1303844.16841153</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1335444.16841153</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1284721.99491153</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1285326.81211153</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1285126.81211153</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1284893.81211153</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1284992.74073466</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1340424.73443466</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1336480.73443466</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1345813.33103466</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1344361.95223466</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1345517.95223466</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1346587.95223466</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1336587.95223466</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1336527.67973466</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1306088.67973466</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1310401.67973466</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1273864.67973466</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1273719.52073466</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-1290157.73233466</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1290149.73233466</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1291170.31453466</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-1289028.79093466</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-1291290.10363466</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-1287664.28773466</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-1287708.28383466</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-1212704.27613466</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-1215669.37463466</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-1213282.37463466</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-1216719.25483466</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-1206507.40433466</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-1206499.40433466</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-1207948.10584016</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-1208406.10584016</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-1209887.32414016</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-1209887.32414016</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-1248592.44024016</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-1240326.74024016</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-1241020.74024016</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-1270320.74024016</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-1270320.74024016</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-1271634.34024016</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-1271634.34024016</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13849,14 +13849,10 @@
         <v>-1337181.864440161</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>68</v>
-      </c>
-      <c r="J408" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
@@ -13889,504 +13885,424 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>68</v>
-      </c>
-      <c r="K409" t="inlineStr">
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>67.86</v>
+      </c>
+      <c r="C410" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="D410" t="n">
+        <v>67.86</v>
+      </c>
+      <c r="E410" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="F410" t="n">
+        <v>22587.5321</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-1403327.62344016</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="C411" t="n">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="D411" t="n">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="E411" t="n">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="F411" t="n">
+        <v>243.8859</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-1403083.73754016</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C412" t="n">
+        <v>67.91</v>
+      </c>
+      <c r="D412" t="n">
+        <v>67.91</v>
+      </c>
+      <c r="E412" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="F412" t="n">
+        <v>3910.7257</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-1406994.46324016</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C413" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="D413" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E413" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="F413" t="n">
+        <v>40835.3169</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-1447829.78014016</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>67.70999999999999</v>
+      </c>
+      <c r="C414" t="n">
+        <v>67.70999999999999</v>
+      </c>
+      <c r="D414" t="n">
+        <v>67.70999999999999</v>
+      </c>
+      <c r="E414" t="n">
+        <v>67.70999999999999</v>
+      </c>
+      <c r="F414" t="n">
+        <v>42959.3198</v>
+      </c>
+      <c r="G414" t="n">
+        <v>-1404870.46034016</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
+      <c r="M414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>67.70999999999999</v>
+      </c>
+      <c r="C415" t="n">
+        <v>67.70999999999999</v>
+      </c>
+      <c r="D415" t="n">
+        <v>67.79000000000001</v>
+      </c>
+      <c r="E415" t="n">
+        <v>67.70999999999999</v>
+      </c>
+      <c r="F415" t="n">
+        <v>30990.5757</v>
+      </c>
+      <c r="G415" t="n">
+        <v>-1404870.46034016</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>67.70999999999999</v>
+      </c>
+      <c r="C416" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D416" t="n">
+        <v>67.70999999999999</v>
+      </c>
+      <c r="E416" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F416" t="n">
+        <v>63450.6879</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-1468321.14824016</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C417" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D417" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E417" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="F417" t="n">
+        <v>68899.7568</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-1537220.905040161</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>67.48</v>
+      </c>
+      <c r="C418" t="n">
+        <v>67.48</v>
+      </c>
+      <c r="D418" t="n">
+        <v>67.48</v>
+      </c>
+      <c r="E418" t="n">
+        <v>67.38</v>
+      </c>
+      <c r="F418" t="n">
+        <v>24723.7141</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-1561944.619140161</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="C419" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="D419" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="E419" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="F419" t="n">
+        <v>564</v>
+      </c>
+      <c r="G419" t="n">
+        <v>-1562508.619140161</v>
+      </c>
+      <c r="H419" t="n">
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>67.48</v>
+      </c>
+      <c r="J419" t="n">
+        <v>67.48</v>
+      </c>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="C420" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="D420" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="E420" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="F420" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-1567508.619140161</v>
+      </c>
+      <c r="H420" t="n">
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="J420" t="n">
+        <v>67.48</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="C421" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D421" t="n">
+        <v>67.38</v>
+      </c>
+      <c r="E421" t="n">
+        <v>67.13</v>
+      </c>
+      <c r="F421" t="n">
+        <v>177709.2929</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-1745217.912040161</v>
+      </c>
+      <c r="H421" t="n">
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="J421" t="n">
+        <v>67.48</v>
+      </c>
+      <c r="K421" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>67.86</v>
-      </c>
-      <c r="C410" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D410" t="n">
-        <v>67.86</v>
-      </c>
-      <c r="E410" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="F410" t="n">
-        <v>22587.5321</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-1403327.62344016</v>
-      </c>
-      <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>68</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>67.93000000000001</v>
-      </c>
-      <c r="C411" t="n">
-        <v>67.93000000000001</v>
-      </c>
-      <c r="D411" t="n">
-        <v>67.93000000000001</v>
-      </c>
-      <c r="E411" t="n">
-        <v>67.93000000000001</v>
-      </c>
-      <c r="F411" t="n">
-        <v>243.8859</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-1403083.73754016</v>
-      </c>
-      <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="J411" t="n">
-        <v>68</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="C412" t="n">
-        <v>67.91</v>
-      </c>
-      <c r="D412" t="n">
-        <v>67.91</v>
-      </c>
-      <c r="E412" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="F412" t="n">
-        <v>3910.7257</v>
-      </c>
-      <c r="G412" t="n">
-        <v>-1406994.46324016</v>
-      </c>
-      <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>67.93000000000001</v>
-      </c>
-      <c r="J412" t="n">
-        <v>68</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="C413" t="n">
-        <v>67.69</v>
-      </c>
-      <c r="D413" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="E413" t="n">
-        <v>67.69</v>
-      </c>
-      <c r="F413" t="n">
-        <v>40835.3169</v>
-      </c>
-      <c r="G413" t="n">
-        <v>-1447829.78014016</v>
-      </c>
-      <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>67.91</v>
-      </c>
-      <c r="J413" t="n">
-        <v>68</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L413" t="n">
-        <v>1</v>
-      </c>
-      <c r="M413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>67.70999999999999</v>
-      </c>
-      <c r="C414" t="n">
-        <v>67.70999999999999</v>
-      </c>
-      <c r="D414" t="n">
-        <v>67.70999999999999</v>
-      </c>
-      <c r="E414" t="n">
-        <v>67.70999999999999</v>
-      </c>
-      <c r="F414" t="n">
-        <v>42959.3198</v>
-      </c>
-      <c r="G414" t="n">
-        <v>-1404870.46034016</v>
-      </c>
-      <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>67.69</v>
-      </c>
-      <c r="J414" t="n">
-        <v>68</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L414" t="n">
-        <v>1</v>
-      </c>
-      <c r="M414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>67.70999999999999</v>
-      </c>
-      <c r="C415" t="n">
-        <v>67.70999999999999</v>
-      </c>
-      <c r="D415" t="n">
-        <v>67.79000000000001</v>
-      </c>
-      <c r="E415" t="n">
-        <v>67.70999999999999</v>
-      </c>
-      <c r="F415" t="n">
-        <v>30990.5757</v>
-      </c>
-      <c r="G415" t="n">
-        <v>-1404870.46034016</v>
-      </c>
-      <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>67.70999999999999</v>
-      </c>
-      <c r="J415" t="n">
-        <v>68</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>67.70999999999999</v>
-      </c>
-      <c r="C416" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D416" t="n">
-        <v>67.70999999999999</v>
-      </c>
-      <c r="E416" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F416" t="n">
-        <v>63450.6879</v>
-      </c>
-      <c r="G416" t="n">
-        <v>-1468321.14824016</v>
-      </c>
-      <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>67.70999999999999</v>
-      </c>
-      <c r="J416" t="n">
-        <v>68</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C417" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D417" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E417" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="F417" t="n">
-        <v>68899.7568</v>
-      </c>
-      <c r="G417" t="n">
-        <v>-1537220.905040161</v>
-      </c>
-      <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J417" t="n">
-        <v>68</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L417" t="n">
-        <v>1</v>
-      </c>
-      <c r="M417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>67.48</v>
-      </c>
-      <c r="C418" t="n">
-        <v>67.48</v>
-      </c>
-      <c r="D418" t="n">
-        <v>67.48</v>
-      </c>
-      <c r="E418" t="n">
-        <v>67.38</v>
-      </c>
-      <c r="F418" t="n">
-        <v>24723.7141</v>
-      </c>
-      <c r="G418" t="n">
-        <v>-1561944.619140161</v>
-      </c>
-      <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="J418" t="n">
-        <v>68</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L418" t="n">
-        <v>1</v>
-      </c>
-      <c r="M418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="C419" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="D419" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="E419" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="F419" t="n">
-        <v>564</v>
-      </c>
-      <c r="G419" t="n">
-        <v>-1562508.619140161</v>
-      </c>
-      <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>67.48</v>
-      </c>
-      <c r="J419" t="n">
-        <v>68</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L419" t="n">
-        <v>1</v>
-      </c>
-      <c r="M419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="C420" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="D420" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="E420" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="F420" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G420" t="n">
-        <v>-1567508.619140161</v>
-      </c>
-      <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="J420" t="n">
-        <v>68</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L420" t="n">
-        <v>1</v>
-      </c>
-      <c r="M420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="C421" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="D421" t="n">
-        <v>67.38</v>
-      </c>
-      <c r="E421" t="n">
-        <v>67.13</v>
-      </c>
-      <c r="F421" t="n">
-        <v>177709.2929</v>
-      </c>
-      <c r="G421" t="n">
-        <v>-1745217.912040161</v>
-      </c>
-      <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="J421" t="n">
-        <v>68</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14421,7 +14337,7 @@
         <v>67.2</v>
       </c>
       <c r="J422" t="n">
-        <v>68</v>
+        <v>67.48</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14462,7 +14378,7 @@
         <v>67.36</v>
       </c>
       <c r="J423" t="n">
-        <v>68</v>
+        <v>67.48</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14503,7 +14419,7 @@
         <v>67.11</v>
       </c>
       <c r="J424" t="n">
-        <v>68</v>
+        <v>67.48</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14544,7 +14460,7 @@
         <v>67.23999999999999</v>
       </c>
       <c r="J425" t="n">
-        <v>68</v>
+        <v>67.48</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14557,6 +14473,6 @@
       <c r="M425" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest XLM.xlsx
+++ b/BackTest/2020-01-24 BackTest XLM.xlsx
@@ -451,7 +451,7 @@
         <v>-376625.29650478</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-413388.50500478</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-427556.11770478</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-437680.92710478</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-446242.39420478</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-491316.53520478</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-449728.59790478</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-453029.50450478</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-453029.50450478</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-453029.50450478</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-454923.47010478</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-454233.80330478</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-454233.80330478</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-455241.50330478</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-455241.50330478</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-416380.73400478</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-580384.7457658199</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-580384.7457658199</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-580340.2426658199</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-581587.3914658199</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-581173.1825658199</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-581173.1825658199</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-582623.9543658199</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-601148.3986658199</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-629239.9794658199</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-629239.9794658199</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-631316.4581658199</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-631316.4581658199</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-631393.3670658199</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-631331.19426582</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-640013.53066582</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-640013.53066582</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-520062.53066582</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-516825.90816582</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-545211.44346582</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-587314.13426582</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-587314.13426582</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-593229.86811705</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-594547.86811705</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-597199.0353170501</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-597199.0353170501</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-597437.9190170501</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-385340.5457170501</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-419686.0042170502</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-379923.8417170502</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-286825.8576170502</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-400549.6090170502</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-469013.7146170502</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-469013.7146170502</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-469013.7146170502</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-544010.3327170502</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-509599.7887053302</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-516367.1187053302</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-514292.0423053302</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-539907.3138053302</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-651152.5613053301</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1172783.70821948</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1175234.05471948</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1154256.99490126</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1153690.99490126</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1130599.57930126</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1127782.172301261</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1127957.002201261</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1119601.660201261</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1121757.220601261</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1103286.093601261</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1108953.563601261</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1102911.019401261</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1104170.019401261</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1120992.620401261</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1107435.120401261</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1129411.783001261</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1128902.114401261</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1157668.762201261</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1147888.18220126</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1150308.65300126</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1100148.304001261</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1105122.896801261</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1127378.119801261</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1132709.45000126</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1132693.23350126</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1132747.70941054</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1176848.95421054</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1176758.89301054</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1176758.89301054</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1156755.74051054</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1156921.73241054</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1156921.73231054</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1155057.90781054</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1155237.24511054</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1157325.64621054</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1147115.80821054</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1150533.30821054</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1148617.30821054</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1148699.54961054</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1148692.24961054</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1148692.24961054</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1150834.44131054</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1150834.44131054</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1156465.60701054</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1210484.00151153</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1322578.69431153</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1349092.67871153</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1348984.08501153</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1341169.18811153</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1321169.18811153</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1311416.07801153</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1312577.45641153</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1313022.45641153</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1313022.45641153</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1313614.75951153</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1313295.55951153</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1313295.55951153</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1312202.30201153</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1313236.30201153</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-1314914.30201153</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-1317486.61541153</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-1316647.61551153</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-1317670.34271153</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1302910.32551153</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1303749.32541153</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1300510.49741153</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1303844.16841153</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1335444.16841153</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1284721.99491153</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1285326.81211153</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1285126.81211153</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1284893.81211153</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1284992.74073466</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1340424.73443466</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1336480.73443466</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1345813.33103466</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1344361.95223466</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1345517.95223466</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1346587.95223466</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1336587.95223466</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1336527.67973466</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1306088.67973466</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1310401.67973466</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1273864.67973466</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1273719.52073466</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-1290157.73233466</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1290149.73233466</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1291170.31453466</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-1289028.79093466</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-1291290.10363466</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-1287664.28773466</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-1287708.28383466</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-1212704.27613466</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-1215669.37463466</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-1213282.37463466</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-1216719.25483466</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-1206507.40433466</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-1206499.40433466</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-1207948.10584016</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-1208406.10584016</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-1209887.32414016</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-1209887.32414016</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-1248592.44024016</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-1240326.74024016</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-1241020.74024016</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-1270320.74024016</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-1270320.74024016</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-1271634.34024016</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-1271634.34024016</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14331,11 +14331,9 @@
         <v>-1732279.630640161</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>67.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
         <v>67.48</v>
       </c>
@@ -14372,11 +14370,9 @@
         <v>-1732346.630640161</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>67.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
         <v>67.48</v>
       </c>
